--- a/biology/Médecine/Claire_Nihoul-Fékété/Claire_Nihoul-Fékété.xlsx
+++ b/biology/Médecine/Claire_Nihoul-Fékété/Claire_Nihoul-Fékété.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Claire_Nihoul-F%C3%A9k%C3%A9t%C3%A9</t>
+          <t>Claire_Nihoul-Fékété</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claire Nihoul-Fékété, née le 26 mai 1939 à Uccle (Belgique), est une chirurgienne pédiatrique française. Elle est la première professeure française de chirurgie pédiatrique et spécialiste en chirurgie intersexe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Claire_Nihoul-F%C3%A9k%C3%A9t%C3%A9</t>
+          <t>Claire_Nihoul-Fékété</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claire Nihoul-Feketé est fille d’une enseignante et d’un ingénieur[1].
-Elle est reçue au concours de l’externat des hôpitaux de Paris en 1958, puis au concours de l'internat en 1961. Elle choisit de devenir chirurgienne et a un poste de chirurgienne assistante en 1966[1]. Elle est la première professeure française de chirurgie pédiatrique[2] en 1971 et exerce à l'hôpital Necker-Enfants Malades[3]. Elle devient cheffe du Service de chirurgie pédiatrique viscérale à l'hôpital Necker[4]. Elle est reconnue pour son expertise en chirurgie intersexe[2],[5].
-Elle fait partie du groupe de travail qui aboutira à la creation de la loi relative aux droits des malades et à la fin de vie[6].
-Elle est membre du Comité consultatif national d'éthique pour les sciences de la vie et de la santé de 1994 à 1999[7].
-Elle travaille avec François Bayrou sur les questions liées à la santé pour sa candidature à l'élection présidentielle de 2007[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire Nihoul-Feketé est fille d’une enseignante et d’un ingénieur.
+Elle est reçue au concours de l’externat des hôpitaux de Paris en 1958, puis au concours de l'internat en 1961. Elle choisit de devenir chirurgienne et a un poste de chirurgienne assistante en 1966. Elle est la première professeure française de chirurgie pédiatrique en 1971 et exerce à l'hôpital Necker-Enfants Malades. Elle devient cheffe du Service de chirurgie pédiatrique viscérale à l'hôpital Necker. Elle est reconnue pour son expertise en chirurgie intersexe,.
+Elle fait partie du groupe de travail qui aboutira à la creation de la loi relative aux droits des malades et à la fin de vie.
+Elle est membre du Comité consultatif national d'éthique pour les sciences de la vie et de la santé de 1994 à 1999.
+Elle travaille avec François Bayrou sur les questions liées à la santé pour sa candidature à l'élection présidentielle de 2007.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Claire_Nihoul-F%C3%A9k%C3%A9t%C3%A9</t>
+          <t>Claire_Nihoul-Fékété</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur[9]
- Chevalier de l'ordre national du Mérite[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur
+ Chevalier de l'ordre national du Mérite</t>
         </is>
       </c>
     </row>
